--- a/AT.Viajeros y pernoctaciones en la ciudad de Madrid por Mes.xlsx
+++ b/AT.Viajeros y pernoctaciones en la ciudad de Madrid por Mes.xlsx
@@ -19,61 +19,61 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Total viajeros</t>
+    <t>TA Total Travelers</t>
   </si>
   <si>
-    <t>Viajeros nacionales</t>
+    <t>TA Total Spanish Travelers</t>
   </si>
   <si>
-    <t>Viajeros residentes extranjeros</t>
+    <t>TA Total Foreign Travelers</t>
   </si>
   <si>
-    <t>Total pernoctaciones</t>
+    <t>TA Total Nigts Stays</t>
   </si>
   <si>
-    <t>Pernoctaciones nacionales</t>
+    <t>TA Total Nights Stays Spanishs</t>
   </si>
   <si>
-    <t>Pernoctaciones extranjeros</t>
+    <t>TA Total Nights Stays Foreigns</t>
   </si>
   <si>
-    <t>Estancia media (días)</t>
+    <t>TA Average Stay (Days)</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>January</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>February</t>
   </si>
   <si>
-    <t>Marzo</t>
+    <t>March</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>April</t>
   </si>
   <si>
-    <t>Mayo</t>
+    <t>May</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>June</t>
   </si>
   <si>
-    <t>Julio</t>
+    <t>July</t>
   </si>
   <si>
-    <t>Agosto</t>
+    <t>August</t>
   </si>
   <si>
-    <t>Septiembre</t>
+    <t>September</t>
   </si>
   <si>
-    <t>Octubre</t>
+    <t>October</t>
   </si>
   <si>
-    <t>Noviembre</t>
+    <t>November</t>
   </si>
   <si>
-    <t>Diciembre</t>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <bottom style="thin">
@@ -128,6 +128,20 @@
       <right style="thin">
         <color rgb="FFDDDDDD"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFDDDDDD"/>
       </bottom>
@@ -174,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -185,21 +199,21 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -208,19 +222,16 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,7 +466,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -535,28 +546,28 @@
       <c r="A3" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>37965.0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>19556.0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>18409.0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>126547.0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>56580.0</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>69967.0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>3.33</v>
       </c>
       <c r="J3" s="6"/>
@@ -581,7 +592,7 @@
       <c r="A4" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="9">
@@ -627,28 +638,28 @@
       <c r="A5" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>52582.0</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>23839.0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>28743.0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>172363.0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>71832.0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>100531.0</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>3.28</v>
       </c>
       <c r="J5" s="6"/>
@@ -673,7 +684,7 @@
       <c r="A6" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9">
@@ -719,28 +730,28 @@
       <c r="A7" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>51843.0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>23670.0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>28173.0</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>155673.0</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>62830.0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>92843.0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>3.0</v>
       </c>
       <c r="J7" s="6"/>
@@ -765,7 +776,7 @@
       <c r="A8" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="9">
@@ -811,28 +822,28 @@
       <c r="A9" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>44621.0</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>19518.0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>25103.0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>150793.0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>60988.0</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>89805.0</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>3.38</v>
       </c>
       <c r="J9" s="6"/>
@@ -857,7 +868,7 @@
       <c r="A10" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="9">
@@ -903,28 +914,28 @@
       <c r="A11" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>44359.0</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>18037.0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>26322.0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>153464.0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>61013.0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>92451.0</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>3.46</v>
       </c>
       <c r="J11" s="6"/>
@@ -949,7 +960,7 @@
       <c r="A12" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="9">
@@ -995,28 +1006,28 @@
       <c r="A13" s="7">
         <v>2017.0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>41110.0</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>25422.0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>15688.0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>137088.0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>73925.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>63163.0</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>3.33</v>
       </c>
       <c r="J13" s="6"/>
@@ -1038,31 +1049,31 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>29500.0</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>16293.0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>13207.0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>117366.0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>56112.0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>61254.0</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>3.98</v>
       </c>
       <c r="J14" s="6"/>
@@ -1084,10 +1095,10 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9">
@@ -1130,31 +1141,31 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>41111.0</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>19360.0</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>21751.0</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>138732.0</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>60997.0</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>77735.0</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>3.37</v>
       </c>
       <c r="J16" s="6"/>
@@ -1176,10 +1187,10 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="9">
@@ -1222,31 +1233,31 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>44272.0</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>19157.0</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>25115.0</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>154298.0</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>62840.0</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>91458.0</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>3.49</v>
       </c>
       <c r="J18" s="6"/>
@@ -1268,10 +1279,10 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="9">
@@ -1314,31 +1325,31 @@
       <c r="Z19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>45259.0</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>19400.0</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>25859.0</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>156839.0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>62826.0</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>94013.0</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>3.47</v>
       </c>
       <c r="J20" s="6"/>
@@ -1360,10 +1371,10 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="9">
@@ -1406,31 +1417,31 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>45432.0</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>19596.0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>25836.0</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>155137.0</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>64857.0</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>90280.0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>3.41</v>
       </c>
       <c r="J22" s="6"/>
@@ -1452,10 +1463,10 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="9">
@@ -1498,31 +1509,31 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>39274.0</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>19887.0</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>19387.0</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>138734.0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>63200.0</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>75534.0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>3.53</v>
       </c>
       <c r="J24" s="6"/>
@@ -1544,10 +1555,10 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>2018.0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="9">
@@ -1593,7 +1604,7 @@
       <c r="A26" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9">
@@ -1639,28 +1650,28 @@
       <c r="A27" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>34744.0</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>17778.0</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>16966.0</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>123767.0</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>57330.0</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>66437.0</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>3.56</v>
       </c>
       <c r="J27" s="6"/>
@@ -1685,7 +1696,7 @@
       <c r="A28" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="9">
@@ -1731,28 +1742,28 @@
       <c r="A29" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>49506.0</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>19679.0</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>29827.0</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>166536.0</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>64515.0</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>102021.0</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>3.36</v>
       </c>
       <c r="J29" s="6"/>
@@ -1777,7 +1788,7 @@
       <c r="A30" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="9">
@@ -1823,28 +1834,28 @@
       <c r="A31" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>52442.0</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>20127.0</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>32315.0</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>167397.0</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>62509.0</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>104888.0</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <v>3.19</v>
       </c>
       <c r="J31" s="6"/>
@@ -1869,7 +1880,7 @@
       <c r="A32" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="9">
@@ -1915,28 +1926,28 @@
       <c r="A33" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>43810.0</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>17045.0</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>26765.0</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>149201.0</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>58343.0</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>90858.0</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>3.41</v>
       </c>
       <c r="J33" s="6"/>
@@ -1961,7 +1972,7 @@
       <c r="A34" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="9">
@@ -2007,28 +2018,28 @@
       <c r="A35" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>55575.0</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>22031.0</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>33544.0</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>174658.0</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>62650.0</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>112008.0</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>3.14</v>
       </c>
       <c r="J35" s="6"/>
@@ -2053,7 +2064,7 @@
       <c r="A36" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="9">
@@ -2099,28 +2110,28 @@
       <c r="A37" s="7">
         <v>2019.0</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>47903.0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>26151.0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>21752.0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>164169.0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>76855.0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>87314.0</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>3.43</v>
       </c>
       <c r="J37" s="6"/>
@@ -2142,31 +2153,31 @@
       <c r="Z37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>44492.0</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>19722.0</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>24770.0</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>153606.0</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>62086.0</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>91520.0</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>3.45</v>
       </c>
       <c r="J38" s="6"/>
@@ -2188,10 +2199,10 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="9">
@@ -2234,31 +2245,31 @@
       <c r="Z39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>10460.0</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>5546.0</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>4914.0</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>61565.0</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>27719.0</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>33846.0</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <v>5.89</v>
       </c>
       <c r="J40" s="6"/>
@@ -2280,10 +2291,10 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="10">
@@ -2326,31 +2337,31 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>0.0</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.0</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>0.0</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>0.0</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>0.0</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>0.0</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>0.0</v>
       </c>
       <c r="J42" s="6"/>
@@ -2372,10 +2383,10 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="10">
@@ -2418,31 +2429,31 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>8883.0</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>6663.0</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>2220.0</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>53428.0</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>31937.0</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>21491.0</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>6.01</v>
       </c>
       <c r="J44" s="6"/>
@@ -2464,10 +2475,10 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="9">
@@ -2510,31 +2521,31 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>9338.0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>6874.0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>2464.0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>57327.0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>35759.0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>21568.0</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="12">
         <v>6.14</v>
       </c>
       <c r="J46" s="6"/>
@@ -2556,10 +2567,10 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="9">
@@ -2602,31 +2613,31 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>6215.0</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>4852.0</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>1363.0</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>52982.0</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>34066.0</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>18916.0</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="12">
         <v>8.52</v>
       </c>
       <c r="J48" s="6"/>
@@ -2648,10 +2659,10 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="9">
@@ -2697,7 +2708,7 @@
       <c r="A50" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="9">
@@ -2743,28 +2754,28 @@
       <c r="A51" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>9794.0</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>7811.0</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>1983.0</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>61783.0</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>41384.0</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>20399.0</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="12">
         <v>6.31</v>
       </c>
       <c r="J51" s="6"/>
@@ -2789,7 +2800,7 @@
       <c r="A52" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="9">
@@ -2835,28 +2846,28 @@
       <c r="A53" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>11736.0</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>8252.0</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>3484.0</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <v>69391.0</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <v>42830.0</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>26560.0</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="12">
         <v>5.91</v>
       </c>
       <c r="J53" s="6"/>
@@ -2881,7 +2892,7 @@
       <c r="A54" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9">
@@ -2927,28 +2938,28 @@
       <c r="A55" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>18465.0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>13428.0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>5037.0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <v>83329.0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>54299.0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>29030.0</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="12">
         <v>4.51</v>
       </c>
       <c r="J55" s="6"/>
@@ -2973,7 +2984,7 @@
       <c r="A56" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="9">
@@ -3019,28 +3030,28 @@
       <c r="A57" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>28445.0</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>17454.0</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>10992.0</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>111307.0</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>63829.0</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>47478.0</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>3.91</v>
       </c>
       <c r="J57" s="6"/>
@@ -3065,7 +3076,7 @@
       <c r="A58" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="9">
@@ -3111,28 +3122,28 @@
       <c r="A59" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>42776.0</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>25723.0</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>17053.0</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>147284.0</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>81955.0</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>65329.0</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <v>3.44</v>
       </c>
       <c r="J59" s="6"/>
@@ -3157,7 +3168,7 @@
       <c r="A60" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="9">
@@ -3203,28 +3214,28 @@
       <c r="A61" s="7">
         <v>2021.0</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>44572.0</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>28191.0</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <v>16381.0</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>147045.0</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>87327.0</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>59718.0</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="12">
         <v>3.3</v>
       </c>
       <c r="J61" s="6"/>
@@ -3246,31 +3257,31 @@
       <c r="Z61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="14">
+      <c r="A62" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>30164.0</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>16896.0</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>13268.0</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>118297.0</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <v>61551.0</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>56746.0</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="12">
         <v>3.95</v>
       </c>
       <c r="J62" s="6"/>
@@ -3292,10 +3303,10 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="14">
+      <c r="A63" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="9">
@@ -3338,31 +3349,31 @@
       <c r="Z63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="14">
+      <c r="A64" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>46526.0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>25411.0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>21115.0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>161816.0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <v>79287.0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>82530.0</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="12">
         <v>3.48</v>
       </c>
       <c r="J64" s="6"/>
@@ -3384,10 +3395,10 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="14">
+      <c r="A65" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="9">
@@ -3430,31 +3441,31 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>54096.0</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>23356.0</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="11">
         <v>30739.0</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>188998.0</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <v>77245.0</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <v>111752.0</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="12">
         <v>3.49</v>
       </c>
       <c r="J66" s="6"/>
@@ -3476,10 +3487,10 @@
       <c r="Z66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="14">
+      <c r="A67" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="9">
@@ -3522,31 +3533,31 @@
       <c r="Z67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="14">
+      <c r="A68" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>55327.0</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>21057.0</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>34270.0</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>192794.0</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>71400.0</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>121394.0</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="12">
         <v>3.48</v>
       </c>
       <c r="J68" s="6"/>
@@ -3568,10 +3579,10 @@
       <c r="Z68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="14">
+      <c r="A69" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="9">
@@ -3614,31 +3625,31 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="14">
+      <c r="A70" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>56174.0</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>23811.0</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>32363.0</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>183319.0</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>68062.0</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>115257.0</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="12">
         <v>3.26</v>
       </c>
       <c r="J70" s="6"/>
@@ -3660,10 +3671,10 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="14">
+      <c r="A71" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C71" s="9">
@@ -3706,31 +3717,31 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="14">
+      <c r="A72" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>54955.0</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <v>25741.0</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>29214.0</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>169083.0</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <v>71804.0</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <v>97279.0</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="12">
         <v>3.08</v>
       </c>
       <c r="J72" s="6"/>
@@ -3752,10 +3763,10 @@
       <c r="Z72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="14">
+      <c r="A73" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="9">
@@ -3801,7 +3812,7 @@
       <c r="A74" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9">
@@ -3847,7 +3858,7 @@
       <c r="A75" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="10">
@@ -3893,7 +3904,7 @@
       <c r="A76" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="10">
@@ -3939,7 +3950,7 @@
       <c r="A77" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="10">
@@ -3985,7 +3996,7 @@
       <c r="A78" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="10">
@@ -4031,7 +4042,7 @@
       <c r="A79" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="10">
@@ -4077,7 +4088,7 @@
       <c r="A80" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="10">
@@ -4123,7 +4134,7 @@
       <c r="A81" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="10">
@@ -4169,7 +4180,7 @@
       <c r="A82" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="10">
@@ -4215,7 +4226,7 @@
       <c r="A83" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="10">
@@ -4261,7 +4272,7 @@
       <c r="A84" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="10">
@@ -4304,10 +4315,10 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="10">
